--- a/Dados experimentais.xlsx
+++ b/Dados experimentais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eng. Química - Unicamp\12 Semestre\Trabalho de Conclusão de Curso (EQ050)\Programa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eng. Química - Unicamp\12 Semestre\Trabalho de Conclusão de Curso (EQ050)\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBBCBBE5-1CF9-4A9D-82DD-839A7295BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D1E92-21CE-49D2-B63E-0D8CCA1C92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CCA8F7B-583A-489D-8297-2A66B95AC9BB}"/>
   </bookViews>
@@ -69,12 +69,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F85058D-BEF2-44BE-8459-437CC79E08F6}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,59 +410,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1.9999999999999999E-6</v>
+      <c r="A2" s="3">
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>35.5</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>3.9999999999999998E-6</v>
+      <c r="A3" s="3">
+        <v>125</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>6.0000000000000002E-6</v>
+      <c r="A4" s="3">
+        <v>177</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>7.9999999999999996E-6</v>
+      <c r="A5" s="3">
+        <v>250</v>
       </c>
       <c r="B5">
-        <v>80.5</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1.0000000000000001E-5</v>
+      <c r="A6" s="3">
+        <v>354</v>
       </c>
       <c r="B6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1.4E-5</v>
-      </c>
-      <c r="B7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="B8">
-        <v>96</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/Dados experimentais.xlsx
+++ b/Dados experimentais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eng. Química - Unicamp\12 Semestre\Trabalho de Conclusão de Curso (EQ050)\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169D1E92-21CE-49D2-B63E-0D8CCA1C92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230CD136-1BAB-4C12-A484-AFBEE4CB4858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7CCA8F7B-583A-489D-8297-2A66B95AC9BB}"/>
   </bookViews>
@@ -27,10 +27,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>d</t>
+    <t>y</t>
   </si>
   <si>
-    <t>y</t>
+    <r>
+      <t>d (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μm)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -40,13 +51,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -390,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F85058D-BEF2-44BE-8459-437CC79E08F6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,50 +420,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.51</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.78</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>354</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.95</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
